--- a/doc/opcodes.xlsx
+++ b/doc/opcodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\go\HelloWorld\src\HelloWorldServer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076C182C-5863-469C-B211-CBCAC24FC1CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF52EA45-AEAA-4419-B01C-620F083E1E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系统级" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="95">
   <si>
     <t>NAME</t>
   </si>
@@ -375,6 +375,18 @@
   </si>
   <si>
     <t>发送失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取Code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未授权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未授权的请求、未登录等</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +801,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -920,6 +932,9 @@
       <c r="A16">
         <v>6516</v>
       </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -949,15 +964,16 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F4EA1F-5683-440F-AAA4-FC2638D06E54}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1158,6 +1174,20 @@
       </c>
       <c r="D16">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1587,7 +1617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BE64E1-8E89-432E-89C8-90DC6845DA0C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/doc/opcodes.xlsx
+++ b/doc/opcodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\go\HelloWorld\src\HelloWorldServer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF52EA45-AEAA-4419-B01C-620F083E1E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A0BFC0-2B51-4351-BA5E-EB416960F232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系统级" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
   <si>
     <t>NAME</t>
   </si>
@@ -387,6 +387,22 @@
   </si>
   <si>
     <t>未授权的请求、未登录等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resuming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重连</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResumingSuccess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResumingFail</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -798,10 +814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796B8AE7-C2A3-469D-AC63-CB83E9CF0B66}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -888,76 +904,103 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>6501</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>6504</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>6507</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>6510</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>6513</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>6516</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B36" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>6519</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>6522</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>6525</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>6528</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>6531</v>
       </c>
     </row>
@@ -972,7 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F4EA1F-5683-440F-AAA4-FC2638D06E54}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/doc/opcodes.xlsx
+++ b/doc/opcodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\go\HelloWorld\src\HelloWorldServer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A0BFC0-2B51-4351-BA5E-EB416960F232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8D05F3-4F07-4B3E-8917-60E700F304B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
   <si>
     <t>NAME</t>
   </si>
@@ -403,6 +403,22 @@
   </si>
   <si>
     <t>ResumingFail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送消息给好友</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到消息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -814,10 +830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796B8AE7-C2A3-469D-AC63-CB83E9CF0B66}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1002,6 +1018,38 @@
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>6531</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>6601</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>6602</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>6603</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>6604</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/doc/opcodes.xlsx
+++ b/doc/opcodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\go\HelloWorld\src\HelloWorldServer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8D05F3-4F07-4B3E-8917-60E700F304B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680B239F-F940-4BAD-A1F7-D1157F8CCC45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -832,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796B8AE7-C2A3-469D-AC63-CB83E9CF0B66}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>

--- a/doc/opcodes.xlsx
+++ b/doc/opcodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\go\HelloWorld\src\HelloWorldServer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680B239F-F940-4BAD-A1F7-D1157F8CCC45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC048584-2737-4175-A447-323856A57927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系统级" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="108">
   <si>
     <t>NAME</t>
   </si>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>加入频道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>获取频道成员列表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -419,6 +415,30 @@
   </si>
   <si>
     <t>收到消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入频道-邀请链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入频道-通过邀请链接加入频道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时查看频道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForgetPassword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建子频道</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -832,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796B8AE7-C2A3-469D-AC63-CB83E9CF0B66}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -914,10 +934,10 @@
         <v>6006</v>
       </c>
       <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
         <v>83</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -925,10 +945,10 @@
         <v>6007</v>
       </c>
       <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
         <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -936,7 +956,7 @@
         <v>6008</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -944,7 +964,23 @@
         <v>6009</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6013</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -952,7 +988,7 @@
         <v>6501</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -960,7 +996,7 @@
         <v>6504</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -968,7 +1004,7 @@
         <v>6507</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -976,7 +1012,7 @@
         <v>6510</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -984,7 +1020,7 @@
         <v>6513</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -992,7 +1028,7 @@
         <v>6516</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1025,7 +1061,7 @@
         <v>6601</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1033,7 +1069,7 @@
         <v>6602</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1041,7 +1077,7 @@
         <v>6603</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1049,7 +1085,7 @@
         <v>6604</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1081,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1117,13 +1153,13 @@
         <v>7002</v>
       </c>
       <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>60</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1131,7 +1167,7 @@
         <v>7003</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1142,7 +1178,7 @@
         <v>7004</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1153,13 +1189,13 @@
         <v>7005</v>
       </c>
       <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>66</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1167,13 +1203,13 @@
         <v>7006</v>
       </c>
       <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>68</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1181,13 +1217,13 @@
         <v>7007</v>
       </c>
       <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>70</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1195,13 +1231,13 @@
         <v>7008</v>
       </c>
       <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>72</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1209,7 +1245,7 @@
         <v>7009</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1220,7 +1256,7 @@
         <v>7010</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1231,7 +1267,7 @@
         <v>7011</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1239,7 +1275,7 @@
         <v>7012</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1250,7 +1286,7 @@
         <v>7013</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1261,7 +1297,7 @@
         <v>7014</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1272,13 +1308,13 @@
         <v>7015</v>
       </c>
       <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
         <v>93</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1425,7 @@
         <v>8019</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1397,7 +1433,7 @@
         <v>8022</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1405,7 +1441,7 @@
         <v>8025</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1413,12 +1449,12 @@
         <v>8028</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1429,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9520BB28-97C2-4029-90B0-AA9664032DF7}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1463,10 +1499,10 @@
         <v>9001</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1540,10 +1576,10 @@
         <v>9022</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1551,7 +1587,7 @@
         <v>9025</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1559,7 +1595,7 @@
         <v>9028</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1567,7 +1603,7 @@
         <v>9031</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1575,7 +1611,7 @@
         <v>9034</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1583,7 +1619,7 @@
         <v>9037</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1591,7 +1627,7 @@
         <v>9040</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1599,7 +1635,7 @@
         <v>9043</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1607,7 +1643,7 @@
         <v>9046</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1615,7 +1651,7 @@
         <v>9049</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1623,7 +1659,7 @@
         <v>9052</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1631,7 +1667,7 @@
         <v>9055</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1639,7 +1675,7 @@
         <v>9058</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1647,7 +1683,7 @@
         <v>9061</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1655,7 +1691,7 @@
         <v>9064</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1663,7 +1699,7 @@
         <v>9067</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1671,7 +1707,7 @@
         <v>9070</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1679,7 +1715,7 @@
         <v>9073</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1687,7 +1723,7 @@
         <v>9076</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1695,12 +1731,254 @@
         <v>9079</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>9082</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>9085</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>9088</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>9091</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>9094</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>9097</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>9103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>9106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>9109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>9112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>9115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>9118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>9121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>9124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>9127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>9130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>9133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>9136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>9139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>9142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>9145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>9148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>9151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>9154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>9157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>9160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>9163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>9166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>9169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>9172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>9175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>9178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>9181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>9184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>9187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>9190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>9193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>9196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>9199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>9202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>9205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>9208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>9211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>9214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>9217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>9220</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1740,7 +2018,7 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1748,7 +2026,7 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1756,7 +2034,7 @@
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1764,10 +2042,10 @@
         <v>10004</v>
       </c>
       <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
         <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/doc/opcodes.xlsx
+++ b/doc/opcodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\go\HelloWorld\src\HelloWorldServer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC048584-2737-4175-A447-323856A57927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DEBA5B-3CD9-40CB-B973-A18042C666EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系统级" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
   <si>
     <t>NAME</t>
   </si>
@@ -439,6 +439,14 @@
   </si>
   <si>
     <t>创建子频道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音实时数据PCM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到语音PCM数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1467,7 +1475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9520BB28-97C2-4029-90B0-AA9664032DF7}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -1987,7 +1995,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2056,12 +2064,47 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C0DBFF-E195-4716-A23C-C47E1C788639}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>11001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>11004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/opcodes.xlsx
+++ b/doc/opcodes.xlsx
@@ -5,21 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\go\HelloWorld\src\HelloWorldServer\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\go\helloworld\src\github.com\yanlong-li\HelloWorldServer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DEBA5B-3CD9-40CB-B973-A18042C666EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD053C06-3BA2-4549-A688-44E4857D5104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系统级" sheetId="1" r:id="rId1"/>
     <sheet name="用户" sheetId="3" r:id="rId2"/>
-    <sheet name="网关" sheetId="2" r:id="rId3"/>
-    <sheet name="服务器" sheetId="4" r:id="rId4"/>
-    <sheet name="频道" sheetId="5" r:id="rId5"/>
-    <sheet name="房间" sheetId="6" r:id="rId6"/>
-    <sheet name="语音" sheetId="7" r:id="rId7"/>
+    <sheet name="加密" sheetId="8" r:id="rId3"/>
+    <sheet name="网关" sheetId="2" r:id="rId4"/>
+    <sheet name="服务器" sheetId="4" r:id="rId5"/>
+    <sheet name="频道" sheetId="5" r:id="rId6"/>
+    <sheet name="房间" sheetId="6" r:id="rId7"/>
+    <sheet name="语音" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
   <si>
     <t>NAME</t>
   </si>
@@ -39,12 +40,6 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>Config</t>
-  </si>
-  <si>
-    <t>接收配置参数</t>
-  </si>
-  <si>
     <t>Disconnected</t>
   </si>
   <si>
@@ -85,14 +80,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Receive</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Send</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>心跳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -447,6 +434,30 @@
   </si>
   <si>
     <t>收到语音PCM数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发包处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统级占用，不能用于发包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -502,9 +513,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -786,70 +800,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="5.875" customWidth="1"/>
-    <col min="4" max="4" width="6.875" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -861,7 +884,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -873,7 +896,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -887,10 +910,10 @@
         <v>6001</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -898,10 +921,10 @@
         <v>6002</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -909,10 +932,10 @@
         <v>6003</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -920,10 +943,10 @@
         <v>6004</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -931,10 +954,10 @@
         <v>6005</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -942,10 +965,10 @@
         <v>6006</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -953,10 +976,10 @@
         <v>6007</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -964,7 +987,7 @@
         <v>6008</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -972,7 +995,7 @@
         <v>6009</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -980,7 +1003,7 @@
         <v>6010</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -988,7 +1011,7 @@
         <v>6013</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -996,7 +1019,7 @@
         <v>6501</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1004,7 +1027,7 @@
         <v>6504</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1012,7 +1035,7 @@
         <v>6507</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1020,7 +1043,7 @@
         <v>6510</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1028,7 +1051,7 @@
         <v>6513</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1036,7 +1059,7 @@
         <v>6516</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1069,7 +1092,7 @@
         <v>6601</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1077,7 +1100,7 @@
         <v>6602</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1085,7 +1108,7 @@
         <v>6603</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1093,7 +1116,7 @@
         <v>6604</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1104,11 +1127,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F4EA1F-5683-440F-AAA4-FC2638D06E54}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83AAB6F-AEBF-44C6-A428-59AE69384061}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F4EA1F-5683-440F-AAA4-FC2638D06E54}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1119,16 +1174,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1144,7 +1199,7 @@
         <v>7001</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1153,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1161,13 +1216,13 @@
         <v>7002</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1175,7 +1230,7 @@
         <v>7003</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1186,7 +1241,7 @@
         <v>7004</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1197,13 +1252,13 @@
         <v>7005</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1211,13 +1266,13 @@
         <v>7006</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1225,13 +1280,13 @@
         <v>7007</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1239,13 +1294,13 @@
         <v>7008</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1253,7 +1308,7 @@
         <v>7009</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1264,7 +1319,7 @@
         <v>7010</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1275,7 +1330,7 @@
         <v>7011</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1283,7 +1338,7 @@
         <v>7012</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1294,7 +1349,7 @@
         <v>7013</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1305,7 +1360,7 @@
         <v>7014</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1316,13 +1371,21 @@
         <v>7015</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7016</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1331,7 +1394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FC5DA9-F400-4E99-8BDC-24728E77C3A4}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -1348,7 +1411,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1367,10 +1430,10 @@
         <v>8001</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1378,10 +1441,10 @@
         <v>8004</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1389,10 +1452,10 @@
         <v>8007</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1400,10 +1463,10 @@
         <v>8010</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1411,10 +1474,10 @@
         <v>8013</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1422,10 +1485,10 @@
         <v>8016</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1433,7 +1496,7 @@
         <v>8019</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1441,7 +1504,7 @@
         <v>8022</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1449,7 +1512,7 @@
         <v>8025</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1457,12 +1520,12 @@
         <v>8028</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9520BB28-97C2-4029-90B0-AA9664032DF7}">
   <dimension ref="A1:C76"/>
   <sheetViews>
@@ -1488,7 +1551,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1507,10 +1570,10 @@
         <v>9001</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1518,10 +1581,10 @@
         <v>9004</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1529,10 +1592,10 @@
         <v>9007</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1540,10 +1603,10 @@
         <v>9010</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1551,10 +1614,10 @@
         <v>9013</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1562,10 +1625,10 @@
         <v>9016</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1573,10 +1636,10 @@
         <v>9019</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1584,10 +1647,10 @@
         <v>9022</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1595,7 +1658,7 @@
         <v>9025</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1603,7 +1666,7 @@
         <v>9028</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1611,7 +1674,7 @@
         <v>9031</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1619,7 +1682,7 @@
         <v>9034</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1627,7 +1690,7 @@
         <v>9037</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1635,7 +1698,7 @@
         <v>9040</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1643,7 +1706,7 @@
         <v>9043</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1651,7 +1714,7 @@
         <v>9046</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1659,7 +1722,7 @@
         <v>9049</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1667,7 +1730,7 @@
         <v>9052</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1675,7 +1738,7 @@
         <v>9055</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1683,7 +1746,7 @@
         <v>9058</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1691,7 +1754,7 @@
         <v>9061</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1699,7 +1762,7 @@
         <v>9064</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1707,7 +1770,7 @@
         <v>9067</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1715,7 +1778,7 @@
         <v>9070</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1723,7 +1786,7 @@
         <v>9073</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1731,7 +1794,7 @@
         <v>9076</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1739,7 +1802,7 @@
         <v>9079</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1747,7 +1810,7 @@
         <v>9082</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1755,7 +1818,7 @@
         <v>9085</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1990,7 +2053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BE64E1-8E89-432E-89C8-90DC6845DA0C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2007,7 +2070,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2026,7 +2089,7 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2034,7 +2097,7 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2042,7 +2105,7 @@
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2050,10 +2113,10 @@
         <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2062,11 +2125,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C0DBFF-E195-4716-A23C-C47E1C788639}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2079,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2093,7 +2156,7 @@
         <v>11001</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2101,7 +2164,7 @@
         <v>11004</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/doc/opcodes.xlsx
+++ b/doc/opcodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\go\helloworld\src\github.com\yanlong-li\HelloWorldServer\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanlongli\workspace\go\HelloWorld\src\HelloWorldServer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD053C06-3BA2-4549-A688-44E4857D5104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13887DF-82B7-452C-A213-D7AD132C8560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系统级" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="124">
   <si>
     <t>NAME</t>
   </si>
@@ -458,6 +458,54 @@
   </si>
   <si>
     <t>加密</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索账户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请加为好友</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过加好友</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝加好友</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除好友</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入黑名单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消黑名单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑名单列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友申请被通过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友申请被拒绝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到好友请求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新朋友列表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -881,10 +929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796B8AE7-C2A3-469D-AC63-CB83E9CF0B66}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1066,56 +1114,137 @@
       <c r="A37">
         <v>6519</v>
       </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>6522</v>
       </c>
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>6525</v>
       </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>6528</v>
       </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>6531</v>
       </c>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>6534</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>6537</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>6540</v>
+      </c>
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>6601</v>
+        <v>6543</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>6602</v>
+        <v>6544</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>6603</v>
+        <v>6545</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
+        <v>6546</v>
+      </c>
+      <c r="B48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>6549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>6552</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>6601</v>
+      </c>
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>6602</v>
+      </c>
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>6603</v>
+      </c>
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>6604</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1162,7 +1291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F4EA1F-5683-440F-AAA4-FC2638D06E54}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/doc/opcodes.xlsx
+++ b/doc/opcodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanlongli\workspace\go\HelloWorld\src\HelloWorldServer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13887DF-82B7-452C-A213-D7AD132C8560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503B3844-AD98-4013-A8DB-62783275386D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系统级" sheetId="1" r:id="rId1"/>
@@ -931,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796B8AE7-C2A3-469D-AC63-CB83E9CF0B66}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9520BB28-97C2-4029-90B0-AA9664032DF7}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
